--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040"/>
   </bookViews>
   <sheets>
     <sheet name="SVMRadial" sheetId="1" r:id="rId1"/>
@@ -747,8 +747,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R22:X33"/>
   <sheetViews>
-    <sheetView topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="T35" sqref="T35"/>
+    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="V30" sqref="V30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -867,11 +867,15 @@
       <c r="U29" s="3">
         <v>0.92500000000000004</v>
       </c>
-      <c r="V29" s="3"/>
+      <c r="V29" s="3">
+        <v>0.30199999999999999</v>
+      </c>
       <c r="W29" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="X29" s="3"/>
+      <c r="X29" s="3">
+        <v>0.92800000000000005</v>
+      </c>
     </row>
     <row r="30" spans="18:24">
       <c r="R30" s="2" t="s">
@@ -969,8 +973,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R12:X34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -748,7 +748,7 @@
   <dimension ref="R22:X33"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="V30" sqref="V30"/>
+      <selection activeCell="X42" sqref="X42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035"/>
   </bookViews>
   <sheets>
     <sheet name="SVMRadial" sheetId="1" r:id="rId1"/>
-    <sheet name="SVMLinear" sheetId="2" r:id="rId2"/>
+    <sheet name="outlier" sheetId="3" r:id="rId2"/>
+    <sheet name="SVMLinear" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
@@ -88,6 +89,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -95,6 +97,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -458,6 +461,201 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>273752</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>22382</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="4540952" cy="3832381"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>235657</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>7143</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="0"/>
+          <a:ext cx="4502857" cy="3817143"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>189943</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>159547</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9753600" y="0"/>
+          <a:ext cx="4457143" cy="3779047"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>235657</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>190024</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="4000500"/>
+          <a:ext cx="4502857" cy="3809524"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>212800</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>167165</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="4000499"/>
+          <a:ext cx="4480000" cy="3786666"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -747,17 +945,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R22:X33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B2" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="X42" sqref="X42"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="S30" sqref="S30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -778,7 +976,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -789,7 +987,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -800,7 +998,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -811,7 +1009,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -822,7 +1020,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -833,7 +1031,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -854,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -877,7 +1075,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -900,7 +1098,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -919,7 +1117,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -938,7 +1136,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -971,22 +1169,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P24" sqref="P24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R12:X34"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1007,7 +1220,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1018,7 +1231,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1029,7 +1242,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1040,7 +1253,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1051,7 +1264,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1062,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -1083,7 +1296,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1102,7 +1315,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1125,7 +1338,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1144,7 +1357,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1163,7 +1376,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
   <si>
     <t>SOC</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>0.3521 (e1071)</t>
   </si>
 </sst>
 </file>
@@ -699,7 +702,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -734,7 +737,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -943,10 +946,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="R22:X33"/>
+  <dimension ref="R22:Y33"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="S30" sqref="S30"/>
+    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1136,7 +1139,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1154,6 +1157,9 @@
         <v>8</v>
       </c>
       <c r="X33" s="3"/>
+      <c r="Y33" t="s">
+        <v>14</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -242,7 +242,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>592455</xdr:colOff>
       <xdr:row>21</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -318,7 +318,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
+      <xdr:colOff>592455</xdr:colOff>
       <xdr:row>42</xdr:row>
       <xdr:rowOff>3106</xdr:rowOff>
     </xdr:to>
@@ -946,9 +946,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="R22:Y33"/>
+  <dimension ref="R22:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F9" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
       <selection activeCell="Y34" sqref="Y34"/>
     </sheetView>
   </sheetViews>
@@ -1159,6 +1159,11 @@
       <c r="X33" s="3"/>
       <c r="Y33" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
+      <c r="Y34">
+        <v>0.34749999999999998</v>
       </c>
     </row>
   </sheetData>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -4,14 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="SVMRadial" sheetId="1" r:id="rId1"/>
-    <sheet name="outlier" sheetId="3" r:id="rId2"/>
-    <sheet name="SVMLinear" sheetId="2" r:id="rId3"/>
+    <sheet name="Best Model" sheetId="4" r:id="rId1"/>
+    <sheet name="BEST " sheetId="5" r:id="rId2"/>
+    <sheet name="SVMRadial" sheetId="1" r:id="rId3"/>
+    <sheet name="outlier" sheetId="3" r:id="rId4"/>
+    <sheet name="SVMLinear" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -21,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
   <si>
     <t>SOC</t>
   </si>
@@ -66,6 +68,18 @@
   </si>
   <si>
     <t>0.3521 (e1071)</t>
+  </si>
+  <si>
+    <t>PH</t>
+  </si>
+  <si>
+    <t>RMSE SD</t>
+  </si>
+  <si>
+    <t>R2 SD</t>
+  </si>
+  <si>
+    <t>Avg</t>
   </si>
 </sst>
 </file>
@@ -232,6 +246,239 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>592800</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>24533</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="4860000" cy="1853333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>22860</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>470666</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>87980</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1851660"/>
+          <a:ext cx="6566666" cy="4820000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>56533</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>89974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="1"/>
+          <a:ext cx="4933333" cy="4113333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>49867</xdr:colOff>
+      <xdr:row>45</xdr:row>
+      <xdr:rowOff>109974</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6705600" y="4206241"/>
+          <a:ext cx="4926667" cy="4133333"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>599467</xdr:colOff>
+      <xdr:row>59</xdr:row>
+      <xdr:rowOff>96640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="6766560"/>
+          <a:ext cx="4866667" cy="4120000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>49867</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>3307</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Picture 6"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="8412480"/>
+          <a:ext cx="4926667" cy="4026667"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -464,7 +711,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -946,19 +1193,172 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:F9"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K16" sqref="K16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B3" s="4"/>
+      <c r="C3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E5" s="3">
+        <v>0.33600000000000002</v>
+      </c>
+      <c r="F5" s="3">
+        <v>0.14410000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="E6" s="3">
+        <v>4.2000000000000003E-2</v>
+      </c>
+      <c r="F6" s="3">
+        <v>3.8399999999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="3">
+        <v>0.34499999999999997</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.878</v>
+      </c>
+      <c r="E7" s="3">
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="F7" s="3">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E8" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F8" s="3">
+        <v>3.3700000000000001E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="2">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.42720000000000002</v>
+      </c>
+      <c r="D9" s="2">
+        <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
+        <v>0.7712</v>
+      </c>
+      <c r="E9" s="2">
+        <f t="shared" si="0"/>
+        <v>0.125275</v>
+      </c>
+      <c r="F9" s="2">
+        <f t="shared" si="0"/>
+        <v>6.1850000000000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R22:Y34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
-      <selection activeCell="Y34" sqref="Y34"/>
+    <sheetView topLeftCell="F19" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="85" workbookViewId="0">
+      <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -979,7 +1379,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -990,7 +1390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1001,7 +1401,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1012,7 +1412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1023,7 +1423,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1034,7 +1434,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -1055,7 +1455,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1078,7 +1478,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1101,7 +1501,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1120,7 +1520,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1139,7 +1539,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1161,7 +1561,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:25" x14ac:dyDescent="0.3">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -1178,7 +1578,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1186,14 +1586,14 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R12:X34"/>
   <sheetViews>
@@ -1201,16 +1601,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1231,7 +1631,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1242,7 +1642,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1253,7 +1653,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1264,7 +1664,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1275,7 +1675,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1286,7 +1686,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -1307,7 +1707,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1326,7 +1726,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1349,7 +1749,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1368,7 +1768,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1387,7 +1787,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Best Model" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
   <si>
     <t>SOC</t>
   </si>
@@ -81,12 +81,18 @@
   <si>
     <t>Avg</t>
   </si>
+  <si>
+    <t>Savitzky-Golay</t>
+  </si>
+  <si>
+    <t>Raw Data</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,8 +139,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="6" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -150,6 +172,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="-0.249977111117893"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -196,7 +224,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -213,6 +241,11 @@
     <xf numFmtId="20" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="16">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1199,7 +1232,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1208,36 +1241,76 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:F9"/>
+  <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="H14" sqref="H14:H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B3" s="4"/>
-      <c r="C3" s="4" t="s">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B2" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+      <c r="B3" s="9"/>
+      <c r="C3" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="4" t="s">
+      <c r="F3" s="9" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H3" s="4"/>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="N3" s="4"/>
+      <c r="O3" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P3" s="5">
+        <v>0.4201388888888889</v>
+      </c>
+      <c r="Q3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="R3" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="S3" s="7">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="T3" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1249,8 +1322,36 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
-    </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H4" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="N4" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="O4" s="3">
+        <v>0.312</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q4" s="3">
+        <v>0.92500000000000004</v>
+      </c>
+      <c r="R4" s="3">
+        <v>0.30199999999999999</v>
+      </c>
+      <c r="S4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T4" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+    </row>
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1266,8 +1367,36 @@
       <c r="F5" s="3">
         <v>0.14410000000000001</v>
       </c>
-    </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H5" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="I5" s="3"/>
+      <c r="J5" s="3"/>
+      <c r="K5" s="3"/>
+      <c r="L5" s="3"/>
+      <c r="N5" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="O5" s="3">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q5" s="3">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="R5" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T5" s="3">
+        <v>0.84899999999999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1283,8 +1412,32 @@
       <c r="F6" s="3">
         <v>3.8399999999999997E-2</v>
       </c>
-    </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="N6" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="O6" s="3">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q6" s="3">
+        <v>0.92200000000000004</v>
+      </c>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T6" s="3"/>
+    </row>
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1300,8 +1453,40 @@
       <c r="F7" s="3">
         <v>3.1199999999999999E-2</v>
       </c>
-    </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I7" s="3">
+        <v>0.315</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K7" s="3">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="L7" s="3">
+        <v>3.32E-2</v>
+      </c>
+      <c r="N7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="O7" s="3">
+        <v>0.81599999999999995</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q7" s="3">
+        <v>0.27700000000000002</v>
+      </c>
+      <c r="R7" s="3"/>
+      <c r="S7" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T7" s="3"/>
+    </row>
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1317,8 +1502,32 @@
       <c r="F8" s="3">
         <v>3.3700000000000001E-2</v>
       </c>
-    </row>
-    <row r="9" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="H8" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="I8" s="3"/>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="N8" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O8" s="3">
+        <v>0.34</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q8" s="3">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="R8" s="3"/>
+      <c r="S8" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="T8" s="3"/>
+    </row>
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1337,6 +1546,46 @@
       <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>6.1850000000000002E-2</v>
+      </c>
+      <c r="H9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="2">
+        <f>AVERAGE(I4:I8)</f>
+        <v>0.315</v>
+      </c>
+      <c r="J9" s="2">
+        <f t="shared" ref="J9:L9" si="1">AVERAGE(J4:J8)</f>
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="K9" s="2">
+        <f t="shared" si="1"/>
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="L9" s="2">
+        <f t="shared" si="1"/>
+        <v>3.32E-2</v>
+      </c>
+      <c r="N9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="O9" s="2">
+        <f>AVERAGE(O4:O8)</f>
+        <v>0.42559999999999992</v>
+      </c>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2">
+        <f>AVERAGE(Q4:Q8)</f>
+        <v>0.77080000000000015</v>
+      </c>
+      <c r="R9" s="2">
+        <f>AVERAGE(R4:R8)</f>
+        <v>0.32950000000000002</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2">
+        <f>AVERAGE(T4:T8)</f>
+        <v>0.88850000000000007</v>
       </c>
     </row>
   </sheetData>
@@ -1352,13 +1601,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -1379,7 +1628,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1390,7 +1639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1401,7 +1650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1412,7 +1661,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1423,7 +1672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1434,7 +1683,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -1455,7 +1704,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1478,7 +1727,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1501,7 +1750,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1520,7 +1769,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1539,7 +1788,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1561,7 +1810,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -1586,7 +1835,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1601,16 +1850,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1631,7 +1880,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1642,7 +1891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1653,7 +1902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1664,7 +1913,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1675,7 +1924,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1686,7 +1935,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -1707,7 +1956,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1726,7 +1975,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -1749,7 +1998,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -1768,7 +2017,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -1787,7 +2036,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1244,7 +1244,7 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14:H15"/>
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1325,10 +1325,18 @@
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="L4" s="3"/>
+      <c r="I4" s="3">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="J4" s="3">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="K4" s="3">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>2.2700000000000001E-2</v>
+      </c>
       <c r="N4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1552,19 +1560,19 @@
       </c>
       <c r="I9" s="2">
         <f>AVERAGE(I4:I8)</f>
-        <v>0.315</v>
+        <v>0.28900000000000003</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ref="J9:L9" si="1">AVERAGE(J4:J8)</f>
-        <v>0.89800000000000002</v>
+        <v>0.92149999999999999</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>4.9399999999999999E-2</v>
+        <v>6.9150000000000003E-2</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>3.32E-2</v>
+        <v>2.7950000000000003E-2</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>18</v>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Best Model" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="outlier" sheetId="3" r:id="rId4"/>
     <sheet name="SVMLinear" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -206,9 +206,17 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="16">
+  <cellStyleXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -247,7 +255,7 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="16">
+  <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -255,6 +263,10 @@
     <cellStyle name="Followed Hyperlink" xfId="11" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="13" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="15" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="17" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -262,6 +274,10 @@
     <cellStyle name="Hyperlink" xfId="10" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="12" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="14" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="16" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -982,7 +998,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1017,7 +1033,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1232,10 +1248,15 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1244,18 +1265,18 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="T39" sqref="T39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1263,7 +1284,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -1310,7 +1331,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1359,7 +1380,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1378,7 +1399,9 @@
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="3"/>
+      <c r="I5" s="3">
+        <v>0.81599999999999995</v>
+      </c>
       <c r="J5" s="3"/>
       <c r="K5" s="3"/>
       <c r="L5" s="3"/>
@@ -1404,7 +1427,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1423,9 +1446,13 @@
       <c r="H6" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I6" s="3"/>
+      <c r="I6" s="3">
+        <v>0.35499999999999998</v>
+      </c>
       <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
+      <c r="K6" s="3">
+        <v>5.1999999999999998E-2</v>
+      </c>
       <c r="L6" s="3"/>
       <c r="N6" s="2" t="s">
         <v>4</v>
@@ -1445,7 +1472,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1494,7 +1521,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1513,10 +1540,18 @@
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
+      <c r="I8" s="3">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="K8" s="3">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="L8" s="3">
+        <v>3.3700000000000001E-2</v>
+      </c>
       <c r="N8" s="2" t="s">
         <v>7</v>
       </c>
@@ -1535,7 +1570,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1560,19 +1595,19 @@
       </c>
       <c r="I9" s="2">
         <f>AVERAGE(I4:I8)</f>
-        <v>0.28900000000000003</v>
+        <v>0.41079999999999994</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ref="J9:L9" si="1">AVERAGE(J4:J8)</f>
-        <v>0.92149999999999999</v>
+        <v>0.92366666666666664</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>6.9150000000000003E-2</v>
+        <v>6.6875000000000004E-2</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>2.7950000000000003E-2</v>
+        <v>2.986666666666667E-2</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>18</v>
@@ -1598,6 +1633,12 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1609,13 +1650,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:24">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -1636,7 +1677,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1647,7 +1688,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1658,7 +1699,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1669,7 +1710,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1680,7 +1721,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1691,7 +1732,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -1712,7 +1753,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1735,7 +1776,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1758,7 +1799,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1777,7 +1818,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1796,7 +1837,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1818,7 +1859,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:25">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -1843,10 +1884,15 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1858,16 +1904,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="18:18">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1888,7 +1934,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1899,7 +1945,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1910,7 +1956,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1921,7 +1967,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1932,7 +1978,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1943,7 +1989,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -1964,7 +2010,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +2029,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2006,7 +2052,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2025,7 +2071,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:24">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2044,7 +2090,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:24">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="T39" sqref="T39"/>
+      <selection activeCell="L16" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1447,13 +1447,17 @@
         <v>15</v>
       </c>
       <c r="I6" s="3">
-        <v>0.35499999999999998</v>
-      </c>
-      <c r="J6" s="3"/>
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="J6" s="3">
+        <v>0.87</v>
+      </c>
       <c r="K6" s="3">
-        <v>5.1999999999999998E-2</v>
-      </c>
-      <c r="L6" s="3"/>
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="L6" s="3">
+        <v>2.8400000000000002E-2</v>
+      </c>
       <c r="N6" s="2" t="s">
         <v>4</v>
       </c>
@@ -1595,19 +1599,19 @@
       </c>
       <c r="I9" s="2">
         <f>AVERAGE(I4:I8)</f>
-        <v>0.41079999999999994</v>
+        <v>0.40639999999999998</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ref="J9:L9" si="1">AVERAGE(J4:J8)</f>
-        <v>0.92366666666666664</v>
+        <v>0.91025</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>6.6875000000000004E-2</v>
+        <v>6.3850000000000004E-2</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>2.986666666666667E-2</v>
+        <v>2.9500000000000005E-2</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>18</v>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1265,7 +1265,7 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="L16" sqref="L16"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1400,11 +1400,17 @@
         <v>6</v>
       </c>
       <c r="I5" s="3">
-        <v>0.81599999999999995</v>
-      </c>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="L5" s="3"/>
+        <v>0.746</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="K5" s="3">
+        <v>0.308</v>
+      </c>
+      <c r="L5" s="3">
+        <v>0.16300000000000001</v>
+      </c>
       <c r="N5" s="2" t="s">
         <v>2</v>
       </c>
@@ -1599,19 +1605,19 @@
       </c>
       <c r="I9" s="2">
         <f>AVERAGE(I4:I8)</f>
-        <v>0.40639999999999998</v>
+        <v>0.39239999999999997</v>
       </c>
       <c r="J9" s="2">
         <f t="shared" ref="J9:L9" si="1">AVERAGE(J4:J8)</f>
-        <v>0.91025</v>
+        <v>0.8076000000000001</v>
       </c>
       <c r="K9" s="2">
         <f t="shared" si="1"/>
-        <v>6.3850000000000004E-2</v>
+        <v>0.11268</v>
       </c>
       <c r="L9" s="2">
         <f t="shared" si="1"/>
-        <v>2.9500000000000005E-2</v>
+        <v>5.6200000000000007E-2</v>
       </c>
       <c r="N9" s="2" t="s">
         <v>18</v>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Best Model" sheetId="4" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="outlier" sheetId="3" r:id="rId4"/>
     <sheet name="SVMLinear" sheetId="2" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -182,7 +182,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -203,6 +203,17 @@
       <bottom style="thin">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -232,7 +243,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -254,6 +265,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1248,7 +1260,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1265,18 +1277,18 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1284,7 +1296,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -1331,7 +1343,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1343,6 +1355,9 @@
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
+      <c r="G4" s="11">
+        <v>0.16700000000000001</v>
+      </c>
       <c r="H4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1380,7 +1395,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1433,7 +1448,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1448,6 +1463,9 @@
       </c>
       <c r="F6" s="3">
         <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="G6" s="11">
+        <v>0.33950000000000002</v>
       </c>
       <c r="H6" s="2" t="s">
         <v>15</v>
@@ -1482,7 +1500,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1531,7 +1549,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1580,7 +1598,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1660,13 +1678,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -1687,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1698,7 +1716,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1709,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1720,7 +1738,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1731,7 +1749,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1742,7 +1760,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -1763,7 +1781,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1786,7 +1804,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1809,7 +1827,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1828,7 +1846,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1847,7 +1865,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1869,7 +1887,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25">
+    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -1894,7 +1912,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1914,16 +1932,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1944,7 +1962,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1955,7 +1973,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1966,7 +1984,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -1977,7 +1995,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -1988,7 +2006,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -1999,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -2020,7 +2038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2039,7 +2057,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2062,7 +2080,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2081,7 +2099,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2100,7 +2118,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1010,7 +1010,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1045,7 +1045,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,7 +1277,7 @@
   <dimension ref="B2:T9"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1411,6 +1411,9 @@
       <c r="F5" s="3">
         <v>0.14410000000000001</v>
       </c>
+      <c r="G5" s="11">
+        <v>0.52739999999999998</v>
+      </c>
       <c r="H5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1516,6 +1519,9 @@
       <c r="F7" s="3">
         <v>3.1199999999999999E-2</v>
       </c>
+      <c r="G7" s="11">
+        <v>0.35470000000000002</v>
+      </c>
       <c r="H7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1565,6 +1571,9 @@
       <c r="F8" s="3">
         <v>3.3700000000000001E-2</v>
       </c>
+      <c r="G8" s="11">
+        <v>0.34399999999999997</v>
+      </c>
       <c r="H8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1617,6 +1626,10 @@
       <c r="F9" s="2">
         <f t="shared" si="0"/>
         <v>6.1850000000000002E-2</v>
+      </c>
+      <c r="G9" s="2">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.34652000000000005</v>
       </c>
       <c r="H9" s="2" t="s">
         <v>18</v>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="23835" windowHeight="19035" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Best Model" sheetId="4" r:id="rId1"/>
@@ -544,6 +544,201 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>222089</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>69722</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1645920"/>
+          <a:ext cx="6371429" cy="6104762"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>56381</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="1645920"/>
+          <a:ext cx="6152381" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>84952</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>147840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="13464540" y="1645920"/>
+          <a:ext cx="6180952" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>12565</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>147840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Picture 4"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="7863840"/>
+          <a:ext cx="6161905" cy="6000000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>570743</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>166888</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6758940" y="7863840"/>
+          <a:ext cx="6057143" cy="6019048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>0</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
@@ -772,7 +967,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
@@ -1260,7 +1455,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1276,19 +1471,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="5.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1296,7 +1491,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -1343,7 +1538,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -1395,7 +1590,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -1451,7 +1646,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -1503,7 +1698,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -1555,7 +1750,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -1607,7 +1802,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -1675,6 +1870,7 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1691,13 +1887,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -1718,7 +1914,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -1729,7 +1925,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -1740,7 +1936,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -1751,7 +1947,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -1762,7 +1958,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -1773,7 +1969,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -1794,7 +1990,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -1817,7 +2013,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -1840,7 +2036,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -1859,7 +2055,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -1878,7 +2074,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -1900,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:25" x14ac:dyDescent="0.3">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -1925,7 +2121,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1945,16 +2141,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.25">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -1975,7 +2171,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -1986,7 +2182,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -1997,7 +2193,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2008,7 +2204,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2019,7 +2215,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2030,7 +2226,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -2051,7 +2247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2070,7 +2266,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2093,7 +2289,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2112,7 +2308,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2131,7 +2327,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.25">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032"/>
   </bookViews>
   <sheets>
-    <sheet name="Best Model" sheetId="4" r:id="rId1"/>
-    <sheet name="BEST " sheetId="5" r:id="rId2"/>
-    <sheet name="SVMRadial" sheetId="1" r:id="rId3"/>
-    <sheet name="outlier" sheetId="3" r:id="rId4"/>
-    <sheet name="SVMLinear" sheetId="2" r:id="rId5"/>
+    <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
+    <sheet name="Best Model" sheetId="4" r:id="rId2"/>
+    <sheet name="BEST " sheetId="5" r:id="rId3"/>
+    <sheet name="SVMRadial" sheetId="1" r:id="rId4"/>
+    <sheet name="outlier" sheetId="3" r:id="rId5"/>
+    <sheet name="SVMLinear" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
@@ -23,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
   <si>
     <t>SOC</t>
   </si>
@@ -86,13 +87,49 @@
   </si>
   <si>
     <t>Raw Data</t>
+  </si>
+  <si>
+    <t>20141017_Savitzky-Golay-Filted</t>
+  </si>
+  <si>
+    <t>Parameters</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>repeats</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>tuneLength</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>gls</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>2014101701_Savitzky-Golay-Filted</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -155,8 +192,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -178,6 +246,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -243,7 +323,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -266,6 +346,21 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1449,6 +1544,427 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:H27"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="6" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="13" customWidth="1"/>
+    <col min="9" max="16384" width="8.88671875" style="13"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B2" s="12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="14"/>
+      <c r="C3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H3" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="16">
+        <v>0.26300000000000001</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.94499999999999995</v>
+      </c>
+      <c r="E4" s="16">
+        <v>8.8900000000000007E-2</v>
+      </c>
+      <c r="F4" s="16">
+        <v>2.2700000000000001E-2</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H4" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="16">
+        <v>0.746</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.39700000000000002</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.308</v>
+      </c>
+      <c r="F5" s="16">
+        <v>0.16300000000000001</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="16">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.87</v>
+      </c>
+      <c r="E6" s="16">
+        <v>3.9899999999999998E-2</v>
+      </c>
+      <c r="F6" s="16">
+        <v>2.8400000000000002E-2</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="16">
+        <v>0.315</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.89800000000000002</v>
+      </c>
+      <c r="E7" s="16">
+        <v>4.9399999999999999E-2</v>
+      </c>
+      <c r="F7" s="16">
+        <v>3.32E-2</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" s="17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" s="16">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="E8" s="16">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="F8" s="16">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="15">
+        <f>AVERAGE(C4:C8)</f>
+        <v>0.39239999999999997</v>
+      </c>
+      <c r="D9" s="15">
+        <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
+        <v>0.8076000000000001</v>
+      </c>
+      <c r="E9" s="15">
+        <f t="shared" si="0"/>
+        <v>0.11268</v>
+      </c>
+      <c r="F9" s="15">
+        <f t="shared" si="0"/>
+        <v>5.6200000000000007E-2</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H9" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G12" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H12" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H13" s="17"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="16"/>
+      <c r="D14" s="16"/>
+      <c r="E14" s="16"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H14" s="17"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
+      <c r="E15" s="16"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H15" s="17"/>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C16" s="16"/>
+      <c r="D16" s="16"/>
+      <c r="E16" s="16"/>
+      <c r="F16" s="16"/>
+      <c r="G16" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" s="17"/>
+    </row>
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B17" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
+      <c r="E17" s="16"/>
+      <c r="F17" s="16"/>
+      <c r="G17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H17" s="17"/>
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B18" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" s="15" t="e">
+        <f>AVERAGE(C13:C17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D18" s="15" t="e">
+        <f t="shared" ref="D18:F18" si="1">AVERAGE(D13:D17)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E18" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F18" s="15" t="e">
+        <f t="shared" si="1"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H18" s="17"/>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B20" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B21" s="14"/>
+      <c r="C21" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G21" s="18" t="s">
+        <v>22</v>
+      </c>
+      <c r="H21" s="18" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C22" s="16"/>
+      <c r="D22" s="16"/>
+      <c r="E22" s="16"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="H22" s="17"/>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B23" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
+      <c r="E23" s="16"/>
+      <c r="F23" s="16"/>
+      <c r="G23" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H23" s="17"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="H24" s="17"/>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="17"/>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H26" s="17"/>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C27" s="15" t="e">
+        <f>AVERAGE(C22:C26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="D27" s="15" t="e">
+        <f t="shared" ref="D27:F27" si="2">AVERAGE(D22:D26)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="E27" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="F27" s="15" t="e">
+        <f t="shared" si="2"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="G27" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="H27" s="17"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A40" workbookViewId="0">
@@ -1467,12 +1983,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:T9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2:L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1879,7 +2395,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R22:Y34"/>
   <sheetViews>
@@ -2113,7 +2629,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2133,7 +2649,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="R12:X34"/>
   <sheetViews>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
   <si>
     <t>SOC</t>
   </si>
@@ -89,9 +89,6 @@
     <t>Raw Data</t>
   </si>
   <si>
-    <t>20141017_Savitzky-Golay-Filted</t>
-  </si>
-  <si>
     <t>Parameters</t>
   </si>
   <si>
@@ -123,13 +120,22 @@
   </si>
   <si>
     <t>2014101701_Savitzky-Golay-Filted</t>
+  </si>
+  <si>
+    <t>RMSE Test</t>
+  </si>
+  <si>
+    <t>PB:</t>
+  </si>
+  <si>
+    <t>2014101702_Savitzky-Golay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -223,8 +229,18 @@
       <family val="1"/>
       <scheme val="major"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -258,6 +274,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -323,7 +345,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -361,6 +383,10 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="24">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1544,26 +1570,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:H27"/>
+  <dimension ref="B2:R10"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="6" width="8.88671875" style="13"/>
-    <col min="7" max="7" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="13" customWidth="1"/>
-    <col min="9" max="16384" width="8.88671875" style="13"/>
+    <col min="7" max="7" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5546875" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+      <c r="K2" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
         <v>11</v>
@@ -1577,386 +1607,311 @@
       <c r="F3" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="18" t="s">
-        <v>22</v>
+      <c r="G3" s="21" t="s">
+        <v>32</v>
       </c>
       <c r="H3" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+        <v>21</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="14"/>
+      <c r="L3" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O3" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P3" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q3" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R3" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="16">
-        <v>0.26300000000000001</v>
+        <v>0.28499999999999998</v>
       </c>
       <c r="D4" s="16">
-        <v>0.94499999999999995</v>
+        <v>0.93500000000000005</v>
       </c>
       <c r="E4" s="16">
-        <v>8.8900000000000007E-2</v>
+        <v>6.3299999999999995E-2</v>
       </c>
       <c r="F4" s="16">
-        <v>2.2700000000000001E-2</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" s="17">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G4" s="16">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I4" s="17">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K4" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L4" s="16"/>
+      <c r="M4" s="16"/>
+      <c r="N4" s="16"/>
+      <c r="O4" s="16"/>
+      <c r="P4" s="16"/>
+      <c r="Q4" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R4" s="17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C5" s="16">
-        <v>0.746</v>
+        <v>0.82299999999999995</v>
       </c>
       <c r="D5" s="16">
-        <v>0.39700000000000002</v>
+        <v>0.32</v>
       </c>
       <c r="E5" s="16">
-        <v>0.308</v>
+        <v>0.18099999999999999</v>
       </c>
       <c r="F5" s="16">
-        <v>0.16300000000000001</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="17">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G5" s="16">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="17">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K5" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L5" s="16"/>
+      <c r="M5" s="16"/>
+      <c r="N5" s="16"/>
+      <c r="O5" s="16"/>
+      <c r="P5" s="16"/>
+      <c r="Q5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C6" s="16">
-        <v>0.33300000000000002</v>
+        <v>0.34399999999999997</v>
       </c>
       <c r="D6" s="16">
-        <v>0.87</v>
+        <v>0.86</v>
       </c>
       <c r="E6" s="16">
-        <v>3.9899999999999998E-2</v>
+        <v>2.3599999999999999E-2</v>
       </c>
       <c r="F6" s="16">
-        <v>2.8400000000000002E-2</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H6" s="17">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G6" s="16">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="H6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I6" s="17">
         <v>20</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K6" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L6" s="16"/>
+      <c r="M6" s="16"/>
+      <c r="N6" s="16"/>
+      <c r="O6" s="16"/>
+      <c r="P6" s="16"/>
+      <c r="Q6" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C7" s="16">
-        <v>0.315</v>
+        <v>0.32800000000000001</v>
       </c>
       <c r="D7" s="16">
-        <v>0.89800000000000002</v>
+        <v>0.89</v>
       </c>
       <c r="E7" s="16">
-        <v>4.9399999999999999E-2</v>
+        <v>2.4299999999999999E-2</v>
       </c>
       <c r="F7" s="16">
-        <v>3.32E-2</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H7" s="17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G7" s="16">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="H7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I7" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L7" s="16"/>
+      <c r="M7" s="16"/>
+      <c r="N7" s="16"/>
+      <c r="O7" s="16"/>
+      <c r="P7" s="16"/>
+      <c r="Q7" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R7" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C8" s="16">
-        <v>0.30499999999999999</v>
+        <v>0.34300000000000003</v>
       </c>
       <c r="D8" s="16">
-        <v>0.92800000000000005</v>
+        <v>0.91</v>
       </c>
       <c r="E8" s="16">
-        <v>7.7200000000000005E-2</v>
+        <v>7.9299999999999995E-2</v>
       </c>
       <c r="F8" s="16">
-        <v>3.3700000000000001E-2</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H8" s="17">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="G8" s="16">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="H8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K8" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L8" s="16"/>
+      <c r="M8" s="16"/>
+      <c r="N8" s="16"/>
+      <c r="O8" s="16"/>
+      <c r="P8" s="16"/>
+      <c r="Q8" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R8" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C9" s="15">
         <f>AVERAGE(C4:C8)</f>
-        <v>0.39239999999999997</v>
+        <v>0.42460000000000003</v>
       </c>
       <c r="D9" s="15">
         <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
-        <v>0.8076000000000001</v>
+        <v>0.78300000000000014</v>
       </c>
       <c r="E9" s="15">
         <f t="shared" si="0"/>
-        <v>0.11268</v>
+        <v>7.4299999999999991E-2</v>
       </c>
       <c r="F9" s="15">
         <f t="shared" si="0"/>
-        <v>5.6200000000000007E-2</v>
-      </c>
-      <c r="G9" s="19" t="s">
+        <v>4.1340000000000002E-2</v>
+      </c>
+      <c r="G9" s="15">
+        <f>AVERAGE(G4:G8)</f>
+        <v>0.29881999999999997</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H9" s="17" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C13" s="16"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H13" s="17"/>
-    </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B14" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C14" s="16"/>
-      <c r="D14" s="16"/>
-      <c r="E14" s="16"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H14" s="17"/>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="16"/>
-      <c r="D15" s="16"/>
-      <c r="E15" s="16"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H15" s="17"/>
-    </row>
-    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B16" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C16" s="16"/>
-      <c r="D16" s="16"/>
-      <c r="E16" s="16"/>
-      <c r="F16" s="16"/>
-      <c r="G16" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" s="17"/>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B17" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C17" s="16"/>
-      <c r="D17" s="16"/>
-      <c r="E17" s="16"/>
-      <c r="F17" s="16"/>
-      <c r="G17" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H17" s="17"/>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B18" s="20" t="s">
+      <c r="K9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C18" s="15" t="e">
-        <f>AVERAGE(C13:C17)</f>
+      <c r="L9" s="15" t="e">
+        <f>AVERAGE(L4:L8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="D18" s="15" t="e">
-        <f t="shared" ref="D18:F18" si="1">AVERAGE(D13:D17)</f>
+      <c r="M9" s="15" t="e">
+        <f t="shared" ref="M9:O9" si="1">AVERAGE(M4:M8)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E18" s="15" t="e">
+      <c r="N9" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="F18" s="15" t="e">
+      <c r="O9" s="15" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="19" t="s">
+      <c r="P9" s="15" t="e">
+        <f>AVERAGE(P4:P8)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Q9" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="H18" s="17"/>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B20" s="12" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B21" s="14"/>
-      <c r="C21" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="14" t="s">
-        <v>10</v>
-      </c>
-      <c r="E21" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G21" s="18" t="s">
-        <v>22</v>
-      </c>
-      <c r="H21" s="18" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B22" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
-      <c r="E22" s="16"/>
-      <c r="F22" s="16"/>
-      <c r="G22" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="H22" s="17"/>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B23" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
-      <c r="E23" s="16"/>
-      <c r="F23" s="16"/>
-      <c r="G23" s="19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="17"/>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B24" s="20" t="s">
-        <v>15</v>
-      </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
-      <c r="E24" s="16"/>
-      <c r="F24" s="16"/>
-      <c r="G24" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="H24" s="17"/>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B25" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="16"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="16"/>
-      <c r="G25" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="H25" s="17"/>
-    </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B26" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="C26" s="16"/>
-      <c r="D26" s="16"/>
-      <c r="E26" s="16"/>
-      <c r="F26" s="16"/>
-      <c r="G26" s="19" t="s">
-        <v>26</v>
-      </c>
-      <c r="H26" s="17"/>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B27" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C27" s="15" t="e">
-        <f>AVERAGE(C22:C26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="D27" s="15" t="e">
-        <f t="shared" ref="D27:F27" si="2">AVERAGE(D22:D26)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="E27" s="15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="F27" s="15" t="e">
-        <f t="shared" si="2"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="G27" s="19" t="s">
-        <v>28</v>
-      </c>
-      <c r="H27" s="17"/>
+    </row>
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C10" s="22">
+        <v>0.55517000000000005</v>
+      </c>
+      <c r="K10" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L10" s="22">
+        <v>0.55517000000000005</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="23832" windowHeight="19032"/>
+    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="outlier" sheetId="3" r:id="rId5"/>
     <sheet name="SVMLinear" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="152511" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
   <si>
     <t>SOC</t>
   </si>
@@ -129,6 +129,12 @@
   </si>
   <si>
     <t>2014101702_Savitzky-Golay</t>
+  </si>
+  <si>
+    <t>2014101703_Savitzky-Golay-Filted</t>
+  </si>
+  <si>
+    <t>T</t>
   </si>
 </sst>
 </file>
@@ -319,9 +325,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="24">
+  <cellStyleXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -388,7 +396,7 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="24">
+  <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="5" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="7" builtinId="9" hidden="1"/>
@@ -400,6 +408,7 @@
     <cellStyle name="Followed Hyperlink" xfId="19" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="21" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="23" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="25" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="2" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="4" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="6" builtinId="8" hidden="1"/>
@@ -411,6 +420,7 @@
     <cellStyle name="Hyperlink" xfId="18" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="20" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="22" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="24" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
@@ -1326,7 +1336,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1361,7 +1371,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1570,22 +1580,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R10"/>
+  <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="6" width="8.88671875" style="13"/>
+    <col min="1" max="6" width="8.83203125" style="13"/>
     <col min="7" max="7" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5546875" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.88671875" style="13"/>
+    <col min="8" max="8" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" style="13" customWidth="1"/>
+    <col min="10" max="16384" width="8.83203125" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:18">
       <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1603,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:18">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
         <v>11</v>
@@ -1639,7 +1649,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:18">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1679,7 +1689,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:18">
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -1719,7 +1729,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:18">
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1759,7 +1769,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:18">
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
@@ -1799,7 +1809,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:18">
       <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
@@ -1839,7 +1849,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:18">
       <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1899,22 +1909,235 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:18">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="C10" s="22">
         <v>0.55517000000000005</v>
       </c>
+      <c r="I10" s="13">
+        <v>0.9</v>
+      </c>
       <c r="K10" s="22" t="s">
         <v>33</v>
       </c>
       <c r="L10" s="22">
         <v>0.55517000000000005</v>
       </c>
+      <c r="R10" s="13">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18">
+      <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="B13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I13" s="18" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="B14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0.93500000000000005</v>
+      </c>
+      <c r="E14" s="16">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="F14" s="16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0.29389999999999999</v>
+      </c>
+      <c r="H14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="B15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0.82299999999999995</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0.32</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0.18099999999999999</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="H15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I15" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18">
+      <c r="B16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.34399999999999997</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.86</v>
+      </c>
+      <c r="E16" s="16">
+        <v>2.3599999999999999E-2</v>
+      </c>
+      <c r="F16" s="16">
+        <v>1.84E-2</v>
+      </c>
+      <c r="G16" s="16">
+        <v>0.27029999999999998</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I16" s="17">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C17" s="16">
+        <v>0.32800000000000001</v>
+      </c>
+      <c r="D17" s="16">
+        <v>0.89</v>
+      </c>
+      <c r="E17" s="16">
+        <v>2.4299999999999999E-2</v>
+      </c>
+      <c r="F17" s="16">
+        <v>1.67E-2</v>
+      </c>
+      <c r="G17" s="16">
+        <v>0.30780000000000002</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="B18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C18" s="16">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="D18" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="E18" s="16">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F18" s="16">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="G18" s="16">
+        <v>0.31430000000000002</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I18" s="17">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="B19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" s="15">
+        <f>AVERAGE(C14:C18)</f>
+        <v>0.42460000000000003</v>
+      </c>
+      <c r="D19" s="15">
+        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <v>0.78300000000000014</v>
+      </c>
+      <c r="E19" s="15">
+        <f t="shared" si="2"/>
+        <v>7.4299999999999991E-2</v>
+      </c>
+      <c r="F19" s="15">
+        <f t="shared" si="2"/>
+        <v>4.1340000000000002E-2</v>
+      </c>
+      <c r="G19" s="15">
+        <f>AVERAGE(G14:G18)</f>
+        <v>0.29881999999999997</v>
+      </c>
+      <c r="H19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="17" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="B20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0.55517000000000005</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
 
@@ -1926,7 +2149,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -1946,7 +2169,7 @@
       <selection activeCell="H2" sqref="H2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -1954,7 +2177,7 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:20">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -1962,7 +2185,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:20">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -2009,7 +2232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:20">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2061,7 +2284,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:20">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2117,7 +2340,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:20">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2169,7 +2392,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:20">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2221,7 +2444,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:20">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2273,7 +2496,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:20">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2358,13 +2581,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="22" spans="18:24">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -2385,7 +2608,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:24">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2396,7 +2619,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:24">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -2407,7 +2630,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:24">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2418,7 +2641,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:24">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2429,7 +2652,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:24">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2440,7 +2663,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:24">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -2461,7 +2684,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:24">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2484,7 +2707,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:24">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -2507,7 +2730,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:24">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2526,7 +2749,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:24">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2545,7 +2768,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:25">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2567,7 +2790,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:25">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -2592,7 +2815,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2612,16 +2835,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
+    <row r="12" spans="18:18">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="23" spans="18:24">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -2642,7 +2865,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="24" spans="18:24">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2653,7 +2876,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="25" spans="18:24">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2664,7 +2887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="26" spans="18:24">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2675,7 +2898,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="27" spans="18:24">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2686,7 +2909,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="28" spans="18:24">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2697,7 +2920,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="29" spans="18:24">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -2718,7 +2941,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="30" spans="18:24">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2737,7 +2960,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="31" spans="18:24">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2760,7 +2983,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="32" spans="18:24">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -2779,7 +3002,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="33" spans="18:24">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -2798,7 +3021,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
+    <row r="34" spans="18:24">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="25007"/>
-  <workbookPr filterPrivacy="1" autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" autoCompressPictures="0" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="100" windowWidth="23840" windowHeight="19040"/>
+    <workbookView xWindow="240" yWindow="96" windowWidth="23844" windowHeight="19044"/>
   </bookViews>
   <sheets>
     <sheet name="Final Model Record" sheetId="6" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="outlier" sheetId="3" r:id="rId5"/>
     <sheet name="SVMLinear" sheetId="2" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="152511" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
   <si>
     <t>SOC</t>
   </si>
@@ -131,16 +131,19 @@
     <t>2014101702_Savitzky-Golay</t>
   </si>
   <si>
-    <t>2014101703_Savitzky-Golay-Filted</t>
-  </si>
-  <si>
     <t>T</t>
+  </si>
+  <si>
+    <t>2014101703_Savitzky-Golay</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.0000"/>
+  </numFmts>
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -353,7 +356,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -395,6 +398,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1336,7 +1341,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1371,7 +1376,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1583,19 +1588,21 @@
   <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K21" sqref="K21"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="8.83203125" style="13"/>
+    <col min="1" max="6" width="8.77734375" style="13"/>
     <col min="7" max="7" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.83203125" style="13" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="7.5" style="13" customWidth="1"/>
-    <col min="10" max="16384" width="8.83203125" style="13"/>
+    <col min="8" max="8" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.44140625" style="13" customWidth="1"/>
+    <col min="10" max="15" width="8.77734375" style="13"/>
+    <col min="16" max="16" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
+    <col min="17" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18">
+    <row r="2" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B2" s="12" t="s">
         <v>31</v>
       </c>
@@ -1603,7 +1610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="3" spans="2:18">
+    <row r="3" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
       <c r="C3" s="14" t="s">
         <v>11</v>
@@ -1649,7 +1656,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="4" spans="2:18">
+    <row r="4" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1677,11 +1684,21 @@
       <c r="K4" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="L4" s="16"/>
-      <c r="M4" s="16"/>
-      <c r="N4" s="16"/>
-      <c r="O4" s="16"/>
-      <c r="P4" s="16"/>
+      <c r="L4" s="16">
+        <v>0.28499999999999998</v>
+      </c>
+      <c r="M4" s="16">
+        <v>0.93600000000000005</v>
+      </c>
+      <c r="N4" s="16">
+        <v>6.3299999999999995E-2</v>
+      </c>
+      <c r="O4" s="16">
+        <v>1.6400000000000001E-2</v>
+      </c>
+      <c r="P4" s="23">
+        <v>0.32300770000000001</v>
+      </c>
       <c r="Q4" s="19" t="s">
         <v>22</v>
       </c>
@@ -1689,7 +1706,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B5" s="20" t="s">
         <v>6</v>
       </c>
@@ -1717,11 +1734,21 @@
       <c r="K5" s="20" t="s">
         <v>6</v>
       </c>
-      <c r="L5" s="16"/>
-      <c r="M5" s="16"/>
-      <c r="N5" s="16"/>
-      <c r="O5" s="16"/>
-      <c r="P5" s="16"/>
+      <c r="L5" s="16">
+        <v>0.81</v>
+      </c>
+      <c r="M5" s="16">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="N5" s="16">
+        <v>0.20300000000000001</v>
+      </c>
+      <c r="O5" s="16">
+        <v>0.1069</v>
+      </c>
+      <c r="P5" s="23">
+        <v>0.3548171</v>
+      </c>
       <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1729,7 +1756,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B6" s="20" t="s">
         <v>15</v>
       </c>
@@ -1757,11 +1784,21 @@
       <c r="K6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="L6" s="16"/>
-      <c r="M6" s="16"/>
-      <c r="N6" s="16"/>
-      <c r="O6" s="16"/>
-      <c r="P6" s="16"/>
+      <c r="L6" s="16">
+        <v>0.34799999999999998</v>
+      </c>
+      <c r="M6" s="16">
+        <v>0.85799999999999998</v>
+      </c>
+      <c r="N6" s="16">
+        <v>2.3800000000000002E-2</v>
+      </c>
+      <c r="O6" s="16">
+        <v>1.9599999999999999E-2</v>
+      </c>
+      <c r="P6" s="23">
+        <v>0.318</v>
+      </c>
       <c r="Q6" s="19" t="s">
         <v>24</v>
       </c>
@@ -1769,7 +1806,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
         <v>7</v>
       </c>
@@ -1797,11 +1834,21 @@
       <c r="K7" s="20" t="s">
         <v>7</v>
       </c>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16"/>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
+      <c r="L7" s="16">
+        <v>0.32600000000000001</v>
+      </c>
+      <c r="M7" s="16">
+        <v>0.89100000000000001</v>
+      </c>
+      <c r="N7" s="16">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="O7" s="16">
+        <v>1.8200000000000001E-2</v>
+      </c>
+      <c r="P7" s="23">
+        <v>0.3548</v>
+      </c>
       <c r="Q7" s="19" t="s">
         <v>26</v>
       </c>
@@ -1809,7 +1856,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
         <v>0</v>
       </c>
@@ -1837,11 +1884,21 @@
       <c r="K8" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="L8" s="16"/>
-      <c r="M8" s="16"/>
-      <c r="N8" s="16"/>
-      <c r="O8" s="16"/>
-      <c r="P8" s="16"/>
+      <c r="L8" s="16">
+        <v>0.34300000000000003</v>
+      </c>
+      <c r="M8" s="16">
+        <v>0.91</v>
+      </c>
+      <c r="N8" s="16">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="O8" s="16">
+        <v>3.6200000000000003E-2</v>
+      </c>
+      <c r="P8" s="23">
+        <v>0.35118729999999998</v>
+      </c>
       <c r="Q8" s="19" t="s">
         <v>25</v>
       </c>
@@ -1849,7 +1906,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B9" s="20" t="s">
         <v>18</v>
       </c>
@@ -1882,25 +1939,25 @@
       <c r="K9" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="L9" s="15" t="e">
+      <c r="L9" s="15">
         <f>AVERAGE(L4:L8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M9" s="15" t="e">
+        <v>0.4224</v>
+      </c>
+      <c r="M9" s="15">
         <f t="shared" ref="M9:O9" si="1">AVERAGE(M4:M8)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="N9" s="15" t="e">
+        <v>0.78600000000000003</v>
+      </c>
+      <c r="N9" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="O9" s="15" t="e">
+        <v>7.8959999999999989E-2</v>
+      </c>
+      <c r="O9" s="15">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="P9" s="15" t="e">
+        <v>3.9460000000000002E-2</v>
+      </c>
+      <c r="P9" s="24">
         <f>AVERAGE(P4:P8)</f>
-        <v>#DIV/0!</v>
+        <v>0.34036242000000005</v>
       </c>
       <c r="Q9" s="19" t="s">
         <v>27</v>
@@ -1909,7 +1966,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
         <v>33</v>
       </c>
@@ -1929,12 +1986,12 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="2:18">
+    <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:18">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
       <c r="C13" s="14" t="s">
         <v>11</v>
@@ -1954,28 +2011,28 @@
       <c r="H13" s="18" t="s">
         <v>21</v>
       </c>
-      <c r="I13" s="18" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="14" spans="2:18">
+      <c r="I13" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="16">
-        <v>0.28499999999999998</v>
+        <v>0.254</v>
       </c>
       <c r="D14" s="16">
-        <v>0.93500000000000005</v>
+        <v>0.94599999999999995</v>
       </c>
       <c r="E14" s="16">
-        <v>6.3299999999999995E-2</v>
+        <v>8.5400000000000004E-2</v>
       </c>
       <c r="F14" s="16">
-        <v>1.6400000000000001E-2</v>
+        <v>2.3E-2</v>
       </c>
       <c r="G14" s="16">
-        <v>0.29389999999999999</v>
+        <v>0.2155552</v>
       </c>
       <c r="H14" s="19" t="s">
         <v>22</v>
@@ -1984,24 +2041,24 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
+    <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="16">
-        <v>0.82299999999999995</v>
+        <v>0.745</v>
       </c>
       <c r="D15" s="16">
-        <v>0.32</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E15" s="16">
-        <v>0.18099999999999999</v>
+        <v>0.312</v>
       </c>
       <c r="F15" s="16">
-        <v>0.11899999999999999</v>
+        <v>0.16619999999999999</v>
       </c>
       <c r="G15" s="16">
-        <v>0.30780000000000002</v>
+        <v>0.36424790000000001</v>
       </c>
       <c r="H15" s="19" t="s">
         <v>23</v>
@@ -2010,50 +2067,50 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="2:18">
+    <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
         <v>15</v>
       </c>
       <c r="C16" s="16">
-        <v>0.34399999999999997</v>
+        <v>0.32900000000000001</v>
       </c>
       <c r="D16" s="16">
-        <v>0.86</v>
+        <v>0.873</v>
       </c>
       <c r="E16" s="16">
-        <v>2.3599999999999999E-2</v>
+        <v>3.6900000000000002E-2</v>
       </c>
       <c r="F16" s="16">
-        <v>1.84E-2</v>
+        <v>2.8199999999999999E-2</v>
       </c>
       <c r="G16" s="16">
-        <v>0.27029999999999998</v>
+        <v>0.34278910000000001</v>
       </c>
       <c r="H16" s="19" t="s">
         <v>24</v>
       </c>
       <c r="I16" s="17">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
       <c r="C17" s="16">
-        <v>0.32800000000000001</v>
+        <v>0.317</v>
       </c>
       <c r="D17" s="16">
-        <v>0.89</v>
+        <v>0.89700000000000002</v>
       </c>
       <c r="E17" s="16">
-        <v>2.4299999999999999E-2</v>
+        <v>4.1300000000000003E-2</v>
       </c>
       <c r="F17" s="16">
-        <v>1.67E-2</v>
+        <v>2.8899999999999999E-2</v>
       </c>
       <c r="G17" s="16">
-        <v>0.30780000000000002</v>
+        <v>0.36424790000000001</v>
       </c>
       <c r="H17" s="19" t="s">
         <v>26</v>
@@ -2062,24 +2119,24 @@
         <v>29</v>
       </c>
     </row>
-    <row r="18" spans="2:9">
+    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>0</v>
       </c>
       <c r="C18" s="16">
-        <v>0.34300000000000003</v>
+        <v>0.32200000000000001</v>
       </c>
       <c r="D18" s="16">
-        <v>0.91</v>
+        <v>0.92100000000000004</v>
       </c>
       <c r="E18" s="16">
-        <v>7.9299999999999995E-2</v>
+        <v>8.14E-2</v>
       </c>
       <c r="F18" s="16">
-        <v>3.6200000000000003E-2</v>
+        <v>3.8300000000000001E-2</v>
       </c>
       <c r="G18" s="16">
-        <v>0.31430000000000002</v>
+        <v>0.36613820000000002</v>
       </c>
       <c r="H18" s="19" t="s">
         <v>25</v>
@@ -2088,38 +2145,38 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="2:9">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
       <c r="C19" s="15">
         <f>AVERAGE(C14:C18)</f>
-        <v>0.42460000000000003</v>
+        <v>0.39340000000000003</v>
       </c>
       <c r="D19" s="15">
         <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
-        <v>0.78300000000000014</v>
+        <v>0.80859999999999999</v>
       </c>
       <c r="E19" s="15">
         <f t="shared" si="2"/>
-        <v>7.4299999999999991E-2</v>
+        <v>0.11139999999999999</v>
       </c>
       <c r="F19" s="15">
         <f t="shared" si="2"/>
-        <v>4.1340000000000002E-2</v>
+        <v>5.6919999999999991E-2</v>
       </c>
       <c r="G19" s="15">
         <f>AVERAGE(G14:G18)</f>
-        <v>0.29881999999999997</v>
+        <v>0.33059566000000001</v>
       </c>
       <c r="H19" s="19" t="s">
         <v>27</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>33</v>
       </c>
@@ -2149,7 +2206,7 @@
       <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2169,7 +2226,7 @@
       <selection activeCell="H2" sqref="H2:L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="5.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="7" bestFit="1" customWidth="1"/>
@@ -2177,7 +2234,7 @@
     <col min="6" max="6" width="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20">
+    <row r="2" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B2" s="10" t="s">
         <v>20</v>
       </c>
@@ -2185,7 +2242,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="3" spans="2:20">
+    <row r="3" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B3" s="9"/>
       <c r="C3" s="9" t="s">
         <v>11</v>
@@ -2232,7 +2289,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="2:20">
+    <row r="4" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>4</v>
       </c>
@@ -2284,7 +2341,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="5" spans="2:20">
+    <row r="5" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B5" s="2" t="s">
         <v>6</v>
       </c>
@@ -2340,7 +2397,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="6" spans="2:20">
+    <row r="6" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B6" s="2" t="s">
         <v>15</v>
       </c>
@@ -2392,7 +2449,7 @@
       </c>
       <c r="T6" s="3"/>
     </row>
-    <row r="7" spans="2:20">
+    <row r="7" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B7" s="2" t="s">
         <v>7</v>
       </c>
@@ -2444,7 +2501,7 @@
       </c>
       <c r="T7" s="3"/>
     </row>
-    <row r="8" spans="2:20">
+    <row r="8" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B8" s="2" t="s">
         <v>0</v>
       </c>
@@ -2496,7 +2553,7 @@
       </c>
       <c r="T8" s="3"/>
     </row>
-    <row r="9" spans="2:20">
+    <row r="9" spans="2:20" x14ac:dyDescent="0.3">
       <c r="B9" s="2" t="s">
         <v>18</v>
       </c>
@@ -2581,13 +2638,13 @@
       <selection activeCell="R28" sqref="R28:X33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="22" spans="18:24">
+    <row r="22" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R22" s="4"/>
       <c r="S22" s="4" t="s">
         <v>11</v>
@@ -2608,7 +2665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="2" t="s">
         <v>0</v>
       </c>
@@ -2619,7 +2676,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>2</v>
       </c>
@@ -2630,7 +2687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>4</v>
       </c>
@@ -2641,7 +2698,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>6</v>
       </c>
@@ -2652,7 +2709,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>7</v>
       </c>
@@ -2663,7 +2720,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="4"/>
       <c r="S28" s="4" t="s">
         <v>11</v>
@@ -2684,7 +2741,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="2" t="s">
         <v>0</v>
       </c>
@@ -2707,7 +2764,7 @@
         <v>0.92800000000000005</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>2</v>
       </c>
@@ -2730,7 +2787,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>4</v>
       </c>
@@ -2749,7 +2806,7 @@
       </c>
       <c r="X31" s="3"/>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>6</v>
       </c>
@@ -2768,7 +2825,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:25">
+    <row r="33" spans="18:25" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>7</v>
       </c>
@@ -2790,7 +2847,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="34" spans="18:25">
+    <row r="34" spans="18:25" x14ac:dyDescent="0.3">
       <c r="Y34">
         <v>0.34749999999999998</v>
       </c>
@@ -2815,7 +2872,7 @@
       <selection activeCell="P24" sqref="P24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -2835,16 +2892,16 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.109375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="13.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="12" spans="18:18">
+    <row r="12" spans="18:18" x14ac:dyDescent="0.3">
       <c r="R12" s="1"/>
     </row>
-    <row r="23" spans="18:24">
+    <row r="23" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R23" s="4"/>
       <c r="S23" s="4" t="s">
         <v>11</v>
@@ -2865,7 +2922,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="18:24">
+    <row r="24" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R24" s="2" t="s">
         <v>0</v>
       </c>
@@ -2876,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="18:24">
+    <row r="25" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R25" s="2" t="s">
         <v>2</v>
       </c>
@@ -2887,7 +2944,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="18:24">
+    <row r="26" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R26" s="2" t="s">
         <v>4</v>
       </c>
@@ -2898,7 +2955,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="27" spans="18:24">
+    <row r="27" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R27" s="2" t="s">
         <v>6</v>
       </c>
@@ -2909,7 +2966,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="28" spans="18:24">
+    <row r="28" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R28" s="2" t="s">
         <v>7</v>
       </c>
@@ -2920,7 +2977,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="18:24">
+    <row r="29" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R29" s="4"/>
       <c r="S29" s="4" t="s">
         <v>11</v>
@@ -2941,7 +2998,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="30" spans="18:24">
+    <row r="30" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R30" s="2" t="s">
         <v>0</v>
       </c>
@@ -2960,7 +3017,7 @@
       </c>
       <c r="X30" s="3"/>
     </row>
-    <row r="31" spans="18:24">
+    <row r="31" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R31" s="2" t="s">
         <v>2</v>
       </c>
@@ -2983,7 +3040,7 @@
         <v>0.84899999999999998</v>
       </c>
     </row>
-    <row r="32" spans="18:24">
+    <row r="32" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R32" s="2" t="s">
         <v>4</v>
       </c>
@@ -3002,7 +3059,7 @@
       </c>
       <c r="X32" s="3"/>
     </row>
-    <row r="33" spans="18:24">
+    <row r="33" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R33" s="2" t="s">
         <v>6</v>
       </c>
@@ -3021,7 +3078,7 @@
       </c>
       <c r="X33" s="3"/>
     </row>
-    <row r="34" spans="18:24">
+    <row r="34" spans="18:24" x14ac:dyDescent="0.3">
       <c r="R34" s="2" t="s">
         <v>7</v>
       </c>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -1588,7 +1588,7 @@
   <dimension ref="B2:R20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="N10" sqref="N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1979,9 +1979,7 @@
       <c r="K10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="22">
-        <v>0.55517000000000005</v>
-      </c>
+      <c r="L10" s="22"/>
       <c r="R10" s="13">
         <v>0.9</v>
       </c>
@@ -2181,7 +2179,7 @@
         <v>33</v>
       </c>
       <c r="C20" s="22">
-        <v>0.55517000000000005</v>
+        <v>0.55686000000000002</v>
       </c>
       <c r="I20" s="13">
         <v>0.7</v>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
   <si>
     <t>SOC</t>
   </si>
@@ -135,6 +135,9 @@
   </si>
   <si>
     <t>2014101703_Savitzky-Golay</t>
+  </si>
+  <si>
+    <t>2014101801_Raw-Data</t>
   </si>
 </sst>
 </file>
@@ -1587,8 +1590,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:R20"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N10" sqref="N10"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L21" sqref="L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1988,6 +1991,9 @@
       <c r="B12" s="12" t="s">
         <v>36</v>
       </c>
+      <c r="K12" s="12" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B13" s="14"/>
@@ -2012,6 +2018,28 @@
       <c r="I13" s="18">
         <v>16</v>
       </c>
+      <c r="K13" s="14"/>
+      <c r="L13" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="M13" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N13" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="O13" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="P13" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q13" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="R13" s="18">
+        <v>16</v>
+      </c>
     </row>
     <row r="14" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B14" s="20" t="s">
@@ -2038,6 +2066,30 @@
       <c r="I14" s="17">
         <v>10</v>
       </c>
+      <c r="K14" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0.307</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0.91900000000000004</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0.1208</v>
+      </c>
+      <c r="O14" s="16">
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0.34141640000000001</v>
+      </c>
+      <c r="Q14" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="R14" s="17">
+        <v>10</v>
+      </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B15" s="20" t="s">
@@ -2064,6 +2116,30 @@
       <c r="I15" s="17">
         <v>10</v>
       </c>
+      <c r="K15" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0.82599999999999996</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0.27</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0.376</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0.1236</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0.37877820000000001</v>
+      </c>
+      <c r="Q15" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="R15" s="17">
+        <v>5</v>
+      </c>
     </row>
     <row r="16" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B16" s="20" t="s">
@@ -2090,8 +2166,32 @@
       <c r="I16" s="17">
         <v>12</v>
       </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K16" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="16">
+        <v>0.35899999999999999</v>
+      </c>
+      <c r="M16" s="16">
+        <v>0.84799999999999998</v>
+      </c>
+      <c r="N16" s="16">
+        <v>3.7199999999999997E-2</v>
+      </c>
+      <c r="O16" s="16">
+        <v>3.2599999999999997E-2</v>
+      </c>
+      <c r="P16" s="16">
+        <v>0.37604009999999999</v>
+      </c>
+      <c r="Q16" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="R16" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B17" s="20" t="s">
         <v>7</v>
       </c>
@@ -2116,8 +2216,32 @@
       <c r="I17" s="17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K17" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="L17" s="16">
+        <v>0.34200000000000003</v>
+      </c>
+      <c r="M17" s="16">
+        <v>0.88</v>
+      </c>
+      <c r="N17" s="16">
+        <v>4.7399999999999998E-2</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="P17" s="16">
+        <v>0.37877820000000001</v>
+      </c>
+      <c r="Q17" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="R17" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="18" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B18" s="20" t="s">
         <v>0</v>
       </c>
@@ -2142,8 +2266,32 @@
       <c r="I18" s="17">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K18" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L18" s="16">
+        <v>0.308</v>
+      </c>
+      <c r="M18" s="16">
+        <v>0.92600000000000005</v>
+      </c>
+      <c r="N18" s="16">
+        <v>8.5900000000000004E-2</v>
+      </c>
+      <c r="O18" s="16">
+        <v>3.9100000000000003E-2</v>
+      </c>
+      <c r="P18" s="16">
+        <v>0.3893855</v>
+      </c>
+      <c r="Q18" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="R18" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
         <v>18</v>
       </c>
@@ -2173,8 +2321,37 @@
       <c r="I19" s="17" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="K19" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="L19" s="15">
+        <f>AVERAGE(L14:L18)</f>
+        <v>0.4284</v>
+      </c>
+      <c r="M19" s="15">
+        <f t="shared" ref="M19:O19" si="3">AVERAGE(M14:M18)</f>
+        <v>0.76859999999999995</v>
+      </c>
+      <c r="N19" s="15">
+        <f t="shared" si="3"/>
+        <v>0.13346</v>
+      </c>
+      <c r="O19" s="15">
+        <f t="shared" si="3"/>
+        <v>5.484E-2</v>
+      </c>
+      <c r="P19" s="15">
+        <f>AVERAGE(P14:P18)</f>
+        <v>0.37287967999999999</v>
+      </c>
+      <c r="Q19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="R19" s="17" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B20" s="22" t="s">
         <v>33</v>
       </c>
@@ -2182,6 +2359,15 @@
         <v>0.55686000000000002</v>
       </c>
       <c r="I20" s="13">
+        <v>0.7</v>
+      </c>
+      <c r="K20" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="L20" s="22">
+        <v>0.41520000000000001</v>
+      </c>
+      <c r="R20" s="13">
         <v>0.7</v>
       </c>
     </row>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
   <si>
     <t>SOC</t>
   </si>
@@ -128,9 +128,6 @@
     <t>PB:</t>
   </si>
   <si>
-    <t>2014101702_Savitzky-Golay</t>
-  </si>
-  <si>
     <t>T</t>
   </si>
   <si>
@@ -138,6 +135,12 @@
   </si>
   <si>
     <t>2014101801_Raw-Data</t>
+  </si>
+  <si>
+    <t>models_02Oct2014.Rdata</t>
+  </si>
+  <si>
+    <t>SOC (gbm_SG)</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -245,6 +248,29 @@
       <b/>
       <i/>
       <u/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Cambria"/>
+      <family val="1"/>
+      <scheme val="major"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="Cambria"/>
@@ -359,7 +385,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
@@ -403,6 +429,10 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="26">
     <cellStyle name="Followed Hyperlink" xfId="3" builtinId="9" hidden="1"/>
@@ -1588,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R20"/>
+  <dimension ref="B2:R21"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="L21" sqref="L21"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1600,9 +1630,12 @@
     <col min="7" max="7" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.77734375" style="13" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="7.44140625" style="13" customWidth="1"/>
-    <col min="10" max="15" width="8.77734375" style="13"/>
+    <col min="10" max="10" width="8.77734375" style="13"/>
+    <col min="11" max="11" width="10.77734375" style="13" customWidth="1"/>
+    <col min="12" max="15" width="8.77734375" style="13"/>
     <col min="16" max="16" width="10.6640625" style="13" bestFit="1" customWidth="1"/>
-    <col min="17" max="16384" width="8.77734375" style="13"/>
+    <col min="17" max="17" width="11.88671875" style="13" bestFit="1" customWidth="1"/>
+    <col min="18" max="16384" width="8.77734375" style="13"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:18" x14ac:dyDescent="0.25">
@@ -1610,7 +1643,7 @@
         <v>31</v>
       </c>
       <c r="K2" s="12" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:18" x14ac:dyDescent="0.25">
@@ -1688,25 +1721,27 @@
         <v>4</v>
       </c>
       <c r="L4" s="16">
-        <v>0.28499999999999998</v>
+        <f>L14</f>
+        <v>0.307</v>
       </c>
       <c r="M4" s="16">
-        <v>0.93600000000000005</v>
+        <f t="shared" ref="M4:O4" si="0">M14</f>
+        <v>0.91900000000000004</v>
       </c>
       <c r="N4" s="16">
-        <v>6.3299999999999995E-2</v>
+        <f t="shared" si="0"/>
+        <v>0.1208</v>
       </c>
       <c r="O4" s="16">
-        <v>1.6400000000000001E-2</v>
-      </c>
-      <c r="P4" s="23">
-        <v>0.32300770000000001</v>
-      </c>
+        <f t="shared" si="0"/>
+        <v>4.4900000000000002E-2</v>
+      </c>
+      <c r="P4" s="23"/>
       <c r="Q4" s="19" t="s">
         <v>22</v>
       </c>
       <c r="R4" s="17">
-        <v>4</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="2:18" x14ac:dyDescent="0.25">
@@ -1738,20 +1773,18 @@
         <v>6</v>
       </c>
       <c r="L5" s="16">
-        <v>0.81</v>
+        <v>0.82599999999999996</v>
       </c>
       <c r="M5" s="16">
-        <v>0.33500000000000002</v>
+        <v>0.28000000000000003</v>
       </c>
       <c r="N5" s="16">
-        <v>0.20300000000000001</v>
+        <v>0.33600000000000002</v>
       </c>
       <c r="O5" s="16">
-        <v>0.1069</v>
-      </c>
-      <c r="P5" s="23">
-        <v>0.3548171</v>
-      </c>
+        <v>0.14410000000000001</v>
+      </c>
+      <c r="P5" s="23"/>
       <c r="Q5" s="19" t="s">
         <v>23</v>
       </c>
@@ -1788,26 +1821,22 @@
         <v>15</v>
       </c>
       <c r="L6" s="16">
-        <v>0.34799999999999998</v>
+        <v>0.35899999999999999</v>
       </c>
       <c r="M6" s="16">
-        <v>0.85799999999999998</v>
+        <v>0.84799999999999998</v>
       </c>
       <c r="N6" s="16">
-        <v>2.3800000000000002E-2</v>
+        <v>4.2000000000000003E-2</v>
       </c>
       <c r="O6" s="16">
-        <v>1.9599999999999999E-2</v>
-      </c>
-      <c r="P6" s="23">
-        <v>0.318</v>
-      </c>
+        <v>3.8399999999999997E-2</v>
+      </c>
+      <c r="P6" s="23"/>
       <c r="Q6" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="R6" s="17">
-        <v>20</v>
-      </c>
+      <c r="R6" s="17"/>
     </row>
     <row r="7" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
@@ -1838,26 +1867,22 @@
         <v>7</v>
       </c>
       <c r="L7" s="16">
-        <v>0.32600000000000001</v>
+        <v>0.34499999999999997</v>
       </c>
       <c r="M7" s="16">
-        <v>0.89100000000000001</v>
+        <v>0.878</v>
       </c>
       <c r="N7" s="16">
-        <v>2.5399999999999999E-2</v>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="O7" s="16">
-        <v>1.8200000000000001E-2</v>
-      </c>
-      <c r="P7" s="23">
-        <v>0.3548</v>
-      </c>
+        <v>3.1199999999999999E-2</v>
+      </c>
+      <c r="P7" s="23"/>
       <c r="Q7" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="R7" s="17" t="s">
-        <v>29</v>
-      </c>
+      <c r="R7" s="17"/>
     </row>
     <row r="8" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B8" s="20" t="s">
@@ -1884,29 +1909,27 @@
       <c r="I8" s="17">
         <v>18</v>
       </c>
-      <c r="K8" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="L8" s="16">
-        <v>0.34300000000000003</v>
-      </c>
-      <c r="M8" s="16">
-        <v>0.91</v>
-      </c>
-      <c r="N8" s="16">
-        <v>7.9299999999999995E-2</v>
-      </c>
-      <c r="O8" s="16">
-        <v>3.6200000000000003E-2</v>
-      </c>
-      <c r="P8" s="23">
-        <v>0.35118729999999998</v>
-      </c>
+      <c r="K8" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="L8" s="27">
+        <v>0.30499999999999999</v>
+      </c>
+      <c r="M8" s="27">
+        <v>0.92800000000000005</v>
+      </c>
+      <c r="N8" s="27">
+        <v>7.7200000000000005E-2</v>
+      </c>
+      <c r="O8" s="27">
+        <v>3.3700000000000001E-2</v>
+      </c>
+      <c r="P8" s="28"/>
       <c r="Q8" s="19" t="s">
         <v>25</v>
       </c>
       <c r="R8" s="17">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="2:18" x14ac:dyDescent="0.25">
@@ -1918,15 +1941,15 @@
         <v>0.42460000000000003</v>
       </c>
       <c r="D9" s="15">
-        <f t="shared" ref="D9:F9" si="0">AVERAGE(D4:D8)</f>
+        <f t="shared" ref="D9:F9" si="1">AVERAGE(D4:D8)</f>
         <v>0.78300000000000014</v>
       </c>
       <c r="E9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>7.4299999999999991E-2</v>
       </c>
       <c r="F9" s="15">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.1340000000000002E-2</v>
       </c>
       <c r="G9" s="15">
@@ -1944,30 +1967,28 @@
       </c>
       <c r="L9" s="15">
         <f>AVERAGE(L4:L8)</f>
-        <v>0.4224</v>
+        <v>0.4284</v>
       </c>
       <c r="M9" s="15">
-        <f t="shared" ref="M9:O9" si="1">AVERAGE(M4:M8)</f>
-        <v>0.78600000000000003</v>
+        <f t="shared" ref="M9:O9" si="2">AVERAGE(M4:M8)</f>
+        <v>0.77060000000000006</v>
       </c>
       <c r="N9" s="15">
-        <f t="shared" si="1"/>
-        <v>7.8959999999999989E-2</v>
+        <f t="shared" si="2"/>
+        <v>0.12438000000000002</v>
       </c>
       <c r="O9" s="15">
-        <f t="shared" si="1"/>
-        <v>3.9460000000000002E-2</v>
-      </c>
-      <c r="P9" s="24">
+        <f t="shared" si="2"/>
+        <v>5.8459999999999998E-2</v>
+      </c>
+      <c r="P9" s="24" t="e">
         <f>AVERAGE(P4:P8)</f>
-        <v>0.34036242000000005</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="Q9" s="19" t="s">
         <v>27</v>
       </c>
-      <c r="R9" s="17" t="s">
-        <v>28</v>
-      </c>
+      <c r="R9" s="17"/>
     </row>
     <row r="10" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B10" s="22" t="s">
@@ -1982,17 +2003,19 @@
       <c r="K10" s="22" t="s">
         <v>33</v>
       </c>
-      <c r="L10" s="22"/>
+      <c r="L10" s="22">
+        <v>0.39276</v>
+      </c>
       <c r="R10" s="13">
         <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="2:18" x14ac:dyDescent="0.25">
       <c r="B12" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="K12" s="12" t="s">
         <v>36</v>
-      </c>
-      <c r="K12" s="12" t="s">
-        <v>37</v>
       </c>
     </row>
     <row r="13" spans="2:18" x14ac:dyDescent="0.25">
@@ -2300,15 +2323,15 @@
         <v>0.39340000000000003</v>
       </c>
       <c r="D19" s="15">
-        <f t="shared" ref="D19:F19" si="2">AVERAGE(D14:D18)</f>
+        <f t="shared" ref="D19:F19" si="3">AVERAGE(D14:D18)</f>
         <v>0.80859999999999999</v>
       </c>
       <c r="E19" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.11139999999999999</v>
       </c>
       <c r="F19" s="15">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>5.6919999999999991E-2</v>
       </c>
       <c r="G19" s="15">
@@ -2319,7 +2342,7 @@
         <v>27</v>
       </c>
       <c r="I19" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="K19" s="20" t="s">
         <v>18</v>
@@ -2329,15 +2352,15 @@
         <v>0.4284</v>
       </c>
       <c r="M19" s="15">
-        <f t="shared" ref="M19:O19" si="3">AVERAGE(M14:M18)</f>
+        <f t="shared" ref="M19:O19" si="4">AVERAGE(M14:M18)</f>
         <v>0.76859999999999995</v>
       </c>
       <c r="N19" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>0.13346</v>
       </c>
       <c r="O19" s="15">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>5.484E-2</v>
       </c>
       <c r="P19" s="15">
@@ -2348,7 +2371,7 @@
         <v>27</v>
       </c>
       <c r="R19" s="17" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="20" spans="2:18" x14ac:dyDescent="0.25">
@@ -2370,6 +2393,9 @@
       <c r="R20" s="13">
         <v>0.7</v>
       </c>
+    </row>
+    <row r="21" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="L21" s="25"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/model rec.xlsx
+++ b/model rec.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="39">
   <si>
     <t>SOC</t>
   </si>
@@ -1618,10 +1618,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:R21"/>
+  <dimension ref="B2:R29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -2396,6 +2396,196 @@
     </row>
     <row r="21" spans="2:18" x14ac:dyDescent="0.25">
       <c r="L21" s="25"/>
+    </row>
+    <row r="22" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B22" s="12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B23" s="14"/>
+      <c r="C23" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="D23" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="H23" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="24" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B24" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="D24" s="16">
+        <v>0.92400000000000004</v>
+      </c>
+      <c r="E24" s="16">
+        <v>0.1137</v>
+      </c>
+      <c r="F24" s="16">
+        <v>4.1500000000000002E-2</v>
+      </c>
+      <c r="G24" s="16">
+        <v>0.44902710000000001</v>
+      </c>
+      <c r="H24" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B25" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="C25" s="16">
+        <v>0.82399999999999995</v>
+      </c>
+      <c r="D25" s="16">
+        <v>0.27800000000000002</v>
+      </c>
+      <c r="E25" s="16">
+        <v>0.36799999999999999</v>
+      </c>
+      <c r="F25" s="16">
+        <v>0.14660000000000001</v>
+      </c>
+      <c r="G25" s="16">
+        <v>0.85241540000000005</v>
+      </c>
+      <c r="H25" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="I25" s="17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0.35499999999999998</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0.85099999999999998</v>
+      </c>
+      <c r="E26" s="16">
+        <v>3.9800000000000002E-2</v>
+      </c>
+      <c r="F26" s="16">
+        <v>3.7100000000000001E-2</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0.46028269999999999</v>
+      </c>
+      <c r="H26" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="I26" s="17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B27" s="20" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0.33900000000000002</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0.88200000000000001</v>
+      </c>
+      <c r="E27" s="16">
+        <v>4.4299999999999999E-2</v>
+      </c>
+      <c r="F27" s="16">
+        <v>3.15E-2</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0.3333874</v>
+      </c>
+      <c r="H27" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="I27" s="17" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B28" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="C28" s="16">
+        <v>0.3</v>
+      </c>
+      <c r="D28" s="16">
+        <v>0.92900000000000005</v>
+      </c>
+      <c r="E28" s="16">
+        <v>7.9299999999999995E-2</v>
+      </c>
+      <c r="F28" s="16">
+        <v>3.5900000000000001E-2</v>
+      </c>
+      <c r="G28" s="16">
+        <v>0.35235179999999999</v>
+      </c>
+      <c r="H28" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="I28" s="17">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="29" spans="2:18" x14ac:dyDescent="0.25">
+      <c r="B29" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C29" s="15">
+        <f>AVERAGE(C24:C28)</f>
+        <v>0.4244</v>
+      </c>
+      <c r="D29" s="15">
+        <f t="shared" ref="D29:F29" si="5">AVERAGE(D24:D28)</f>
+        <v>0.77279999999999993</v>
+      </c>
+      <c r="E29" s="15">
+        <f t="shared" si="5"/>
+        <v>0.12902000000000002</v>
+      </c>
+      <c r="F29" s="15">
+        <f t="shared" si="5"/>
+        <v>5.8520000000000003E-2</v>
+      </c>
+      <c r="G29" s="15">
+        <f>AVERAGE(G24:G28)</f>
+        <v>0.48949288000000007</v>
+      </c>
+      <c r="H29" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I29" s="17" t="s">
+        <v>34</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
